--- a/data/trans_bre/P25_N_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_N_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,61</t>
+          <t>12,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,37</t>
+          <t>10,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,58</t>
+          <t>10,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,02</t>
+          <t>15,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>142,45%</t>
+          <t>8,33</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>130,17%</t>
+          <t>142,75%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>112,0%</t>
+          <t>83,49%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>94,74%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>95,24%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>49,18%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>33,37%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,63; 21,2</t>
+          <t>3,88; 19,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,26; 20,67</t>
+          <t>0,56; 18,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 21,96</t>
+          <t>0,32; 19,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,11; 28,26</t>
+          <t>3,8; 26,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,0; 443,54</t>
+          <t>-2,88; 18,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,17; 251,21</t>
+          <t>-5,24; 17,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,66; 347,7</t>
+          <t>26,95; 374,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,57; 273,01</t>
+          <t>-1,66; 208,68</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 291,06</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15,37; 233,3</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-13,92; 156,26</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-20,74; 131,85</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,6</t>
+          <t>20,54</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,67</t>
+          <t>10,71</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,97</t>
+          <t>10,11</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,22</t>
+          <t>11,13</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>130,67%</t>
+          <t>20,89</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>84,93%</t>
+          <t>14,76</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>59,27%</t>
+          <t>132,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>59,68%</t>
+          <t>85,39%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>60,81%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>47,21%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>103,18%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>69,18%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,55; 30,54</t>
+          <t>10,75; 29,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 18,03</t>
+          <t>2,77; 17,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 18,22</t>
+          <t>0,02; 18,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 22,78</t>
+          <t>0,92; 22,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,45; 261,9</t>
+          <t>9,53; 31,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,05; 203,2</t>
+          <t>3,71; 25,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 145,06</t>
+          <t>48,28; 257,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,3; 146,33</t>
+          <t>14,46; 198,07</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 157,96</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3,0; 133,03</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>34,24; 217,04</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>12,95; 163,18</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,79</t>
+          <t>13,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,43</t>
+          <t>16,86</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,38</t>
+          <t>13,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,59</t>
+          <t>12,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>54,62%</t>
+          <t>16,14</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,9%</t>
+          <t>22,77</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>59,87%</t>
+          <t>60,22%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>54,73%</t>
+          <t>93,56%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>59,6%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>48,05%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>48,03%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>90,29%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 21,64</t>
+          <t>4,3; 20,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,9; 22,93</t>
+          <t>9,72; 23,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 20,25</t>
+          <t>4,84; 19,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,11; 22,18</t>
+          <t>3,84; 21,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,66; 120,64</t>
+          <t>5,32; 25,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,04; 148,71</t>
+          <t>14,57; 30,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,47; 113,99</t>
+          <t>13,88; 117,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,73; 112,92</t>
+          <t>39,81; 165,14</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>16,94; 105,57</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>11,93; 102,43</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12,41; 89,05</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>46,16; 153,21</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,72</t>
+          <t>21,07</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,54</t>
+          <t>18,15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,82</t>
+          <t>21,45</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,18</t>
+          <t>13,74</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>68,26%</t>
+          <t>14,02</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>56,24%</t>
+          <t>18,11</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>58,69%</t>
+          <t>67,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32,65%</t>
+          <t>59,02%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>61,24%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>33,19%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>29,75%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>42,16%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,78; 28,98</t>
+          <t>12,81; 28,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,91; 25,57</t>
+          <t>10,54; 24,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,26; 27,52</t>
+          <t>13,34; 28,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 22,75</t>
+          <t>3,8; 24,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>37,16; 108,48</t>
+          <t>4,15; 23,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,52; 92,79</t>
+          <t>9,36; 26,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,63; 90,25</t>
+          <t>35,4; 108,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,84; 64,89</t>
+          <t>30,03; 93,79</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>34,22; 93,1</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7,94; 67,05</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>7,51; 57,12</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>18,97; 70,06</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,11</t>
+          <t>15,39</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>15,84</t>
+          <t>16,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,22</t>
+          <t>11,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,69</t>
+          <t>12,59</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>36,11%</t>
+          <t>17,94</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>33,18%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>36,17%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21,12%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>19,97%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>11,68%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>33,91%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,57; 25,74</t>
+          <t>6,1; 24,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,22; 24,43</t>
+          <t>6,76; 24,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 20,13</t>
+          <t>2,76; 19,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 22,36</t>
+          <t>2,88; 21,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,9; 65,22</t>
+          <t>-2,1; 16,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,52; 61,93</t>
+          <t>7,17; 28,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,4; 42,21</t>
+          <t>11,77; 61,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,09; 39,85</t>
+          <t>13,64; 62,75</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4,93; 40,4</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4,71; 38,26</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,12; 27,82</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12,64; 60,92</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,19</t>
+          <t>18,9</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,55</t>
+          <t>12,82</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,4</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,33</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>31,93%</t>
+          <t>18,78</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>15,44</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,6%</t>
+          <t>31,02%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>21,41%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>23,57%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>16,7%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>31,59%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>24,05%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,6; 30,02</t>
+          <t>9,08; 28,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,05; 22,69</t>
+          <t>3,55; 22,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,19; 25,64</t>
+          <t>6,89; 24,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,21; 24,21</t>
+          <t>-1,08; 22,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,33; 58,81</t>
+          <t>7,53; 29,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,67; 43,45</t>
+          <t>4,63; 25,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,69; 44,49</t>
+          <t>13,94; 54,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,75; 41,78</t>
+          <t>5,49; 42,51</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>9,87; 42,94</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 38,11</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>12,01; 56,2</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>6,31; 45,78</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,99</t>
+          <t>18,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,72</t>
+          <t>16,01</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,0</t>
+          <t>15,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,04</t>
+          <t>15,01</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>16,66</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>18,02</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>62,59%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>54,42%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>48,55%</t>
-        </is>
-      </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>42,39%</t>
+          <t>55,45%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>47,88%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>38,8%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>41,53%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>47,82%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,87; 23,15</t>
+          <t>15,11; 22,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,25; 19,47</t>
+          <t>12,4; 19,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,97; 20,17</t>
+          <t>11,72; 19,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,37; 20,62</t>
+          <t>10,67; 19,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>44,68; 81,53</t>
+          <t>12,42; 22,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>38,98; 73,43</t>
+          <t>13,73; 22,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>33,41; 65,71</t>
+          <t>45,92; 81,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>28,06; 58,77</t>
+          <t>39,89; 72,82</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>32,32; 64,94</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>25,28; 53,8</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>28,06; 58,25</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>34,41; 65,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
